--- a/biology/Microbiologie/Rhizobiaceae/Rhizobiaceae.xlsx
+++ b/biology/Microbiologie/Rhizobiaceae/Rhizobiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rhizobiaceae sont une famille de protéobactéries gram-négative, incluant entre autres les genres Agrobacterium, Rhizobium[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rhizobiaceae sont une famille de protéobactéries gram-négative, incluant entre autres les genres Agrobacterium, Rhizobium.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des non-classés et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 novembre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 novembre 2021) :
 genre Agrobacterium Conn, 1942
 genre Allorhizobium de Lajudie, Laurent-Fulele, Willems, Torck, Coopman, Collins, Kersters, Dreyfus &amp; Gillis, 1998
 genre Carbophilus Meyer, Stackebrandt &amp; Auling, 1994
@@ -522,14 +536,14 @@
 genre Kaistia Im, Yokota, Kim &amp; S.T. Lee, 2005
 genre Rhizobium Frank, 1889
 genre Sinorhizobium Chen, Yan &amp; Li, 1988
-Selon ITIS      (11 novembre 2021)[3] :
+Selon ITIS      (11 novembre 2021) :
 genre Carbophilus Meyer &amp; al., 1994
 genre Ensifer Casida, 1982 emend. Young, 2003
 genre Kaistia Im &amp; al., 2005
 genre Rhizobium Frank, 1889 emend. Young &amp; al., 2001
 genre Shinella An &amp; al., 2006
 genre Sinorhizobium Chen &amp; al., 1988 emend. De Lajudie &amp; al., 1994
-Selon NCBI  (11 novembre 2021)[4] :
+Selon NCBI  (11 novembre 2021) :
 genre Amorphomonas
 genre Ciceribacter Kathiravan &amp; al. 2013
 genre Endobacterium "" Menendez &amp; al. 2020
@@ -541,7 +555,7 @@
 non-classé Rhizobiaceae incertae sedis
 non-classé Rhizobium/Agrobacterium group
 non-classé Sinorhizobium/Ensifer group
-Selon World Register of Marine Species                               (11 novembre 2021)[5] :
+Selon World Register of Marine Species                               (11 novembre 2021) :
 genre Agrobacterium Conn, 1942
 genre Ensifer (Casida, 1982) emend. Young, 2003
 genre Kaistia
